--- a/Projects/SIO2-CTC/SIO2-CTC.xlsx
+++ b/Projects/SIO2-CTC/SIO2-CTC.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$A:$E</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -128,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -157,11 +160,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +216,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -234,6 +232,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -242,16 +244,16 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
@@ -526,6 +528,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A:E"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -533,5 +536,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>